--- a/Archivos/Archivos_inventarios/reporte_inventario.xlsx
+++ b/Archivos/Archivos_inventarios/reporte_inventario.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>refresco</t>
+          <t>coca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
